--- a/work/7月系统管理员工作记录.xlsx
+++ b/work/7月系统管理员工作记录.xlsx
@@ -80,8 +80,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -129,8 +129,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,14 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -161,67 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,30 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -288,6 +288,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,18 +348,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,126 +469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,30 +570,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,6 +588,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -623,30 +608,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +631,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,141 +690,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -861,6 +864,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,446 +1234,506 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
-    <col min="5" max="6" width="17.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="5" customWidth="1"/>
-    <col min="10" max="11" width="18.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="5" customWidth="1"/>
-    <col min="13" max="16" width="10.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="6" width="17.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="18.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="6" customWidth="1"/>
+    <col min="13" max="16" width="10.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="69" customHeight="1" spans="1:16">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:16">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>42917</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
         <v>3</v>
       </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
         <v>3</v>
       </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
         <v>10</v>
       </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
         <v>5</v>
       </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:16">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>42918</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="18.75" spans="1:16">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>42919</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
         <v>6</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="16">
         <v>15</v>
       </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
+      <c r="M6" s="16">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="18.75" spans="1:16">
-      <c r="A7" s="14">
+      <c r="A7" s="15">
         <v>42920</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
         <v>3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>2</v>
       </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
         <v>9</v>
       </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15">
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="18.75" spans="1:16">
-      <c r="A8" s="16">
+    <row r="8" s="2" customFormat="1" ht="18.75" spans="1:16">
+      <c r="A8" s="15">
         <v>42921</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
         <v>1</v>
       </c>
-      <c r="K8" s="17">
-        <v>0</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
         <v>1</v>
       </c>
-      <c r="M8" s="17">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
-        <v>0</v>
+      <c r="P8" s="16">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="1:16">
-      <c r="A9" s="14">
+    <row r="9" s="3" customFormat="1" ht="18.75" spans="1:16">
+      <c r="A9" s="17">
         <v>42922</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="18.75" spans="1:16">
-      <c r="A10" s="14">
+    <row r="10" s="4" customFormat="1" ht="18.75" spans="1:16">
+      <c r="A10" s="19">
         <v>42923</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>5</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="18.75" spans="1:16">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>42924</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" ht="18.75" spans="1:16">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>42925</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/work/7月系统管理员工作记录.xlsx
+++ b/work/7月系统管理员工作记录.xlsx
@@ -79,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -129,6 +129,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -154,14 +222,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -178,74 +238,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +288,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,60 +366,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,30 +450,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,49 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +570,30 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,15 +608,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,21 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -678,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,137 +690,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,9 +831,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -876,12 +873,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,506 +1225,506 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="17.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="6" customWidth="1"/>
-    <col min="10" max="11" width="18.125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="6" customWidth="1"/>
-    <col min="13" max="16" width="10.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
+    <col min="5" max="6" width="17.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="18.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="5" customWidth="1"/>
+    <col min="13" max="16" width="10.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="69" customHeight="1" spans="1:16">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:16">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>42917</v>
       </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
         <v>3</v>
       </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>3</v>
       </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
         <v>10</v>
       </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
         <v>5</v>
       </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:16">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>42918</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="18.75" spans="1:16">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>42919</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
         <v>6</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>15</v>
       </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="18.75" spans="1:16">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>42920</v>
       </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
         <v>3</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>2</v>
       </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
         <v>9</v>
       </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="18.75" spans="1:16">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>42921</v>
       </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
         <v>3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
         <v>1</v>
       </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
         <v>1</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="18.75" spans="1:16">
-      <c r="A9" s="17">
+    <row r="9" s="2" customFormat="1" ht="18.75" spans="1:16">
+      <c r="A9" s="14">
         <v>42922</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
         <v>2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <v>1</v>
       </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-      <c r="N9" s="18">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18">
-        <v>0</v>
-      </c>
-      <c r="P9" s="18">
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="18.75" spans="1:16">
-      <c r="A10" s="19">
+    <row r="10" s="3" customFormat="1" ht="18.75" spans="1:16">
+      <c r="A10" s="16">
         <v>42923</v>
       </c>
-      <c r="B10" s="20">
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
         <v>5</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>1</v>
       </c>
-      <c r="H10" s="20">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
-        <v>0</v>
-      </c>
-      <c r="L10" s="20">
-        <v>0</v>
-      </c>
-      <c r="M10" s="20">
-        <v>0</v>
-      </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:16">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>42924</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" ht="18.75" spans="1:16">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>42925</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
